--- a/IPL MS/Data Set/XML/Fixture_20.xlsx
+++ b/IPL MS/Data Set/XML/Fixture_20.xlsx
@@ -46,24 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="25">
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> team1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> team2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> venue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> check</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mumbai Indians</t>
   </si>
   <si>
@@ -119,6 +101,24 @@
   </si>
   <si>
     <t xml:space="preserve">	8:00 PM</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -456,22 +458,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,16 +481,16 @@
         <v>43919</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -499,16 +501,16 @@
         <v>43920</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -519,16 +521,16 @@
         <v>43921</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -539,16 +541,16 @@
         <v>43922</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -559,16 +561,16 @@
         <v>43923</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -579,16 +581,16 @@
         <v>43924</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -599,16 +601,16 @@
         <v>43925</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -619,16 +621,16 @@
         <v>43926</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -639,16 +641,16 @@
         <v>43926</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -659,16 +661,16 @@
         <v>43927</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,16 +678,16 @@
         <v>43928</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -696,16 +698,16 @@
         <v>43929</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>43930</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -736,16 +738,16 @@
         <v>43931</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -756,16 +758,16 @@
         <v>43932</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -776,16 +778,16 @@
         <v>43933</v>
       </c>
       <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -796,16 +798,16 @@
         <v>43933</v>
       </c>
       <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -816,16 +818,16 @@
         <v>43934</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -836,16 +838,16 @@
         <v>43935</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>43936</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -876,16 +878,16 @@
         <v>43937</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>43938</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -916,16 +918,16 @@
         <v>43939</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -936,16 +938,16 @@
         <v>43940</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -956,16 +958,16 @@
         <v>43940</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -976,16 +978,16 @@
         <v>43941</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -996,16 +998,16 @@
         <v>43942</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1016,16 +1018,16 @@
         <v>43943</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1036,16 +1038,16 @@
         <v>43944</v>
       </c>
       <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
         <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1056,16 +1058,16 @@
         <v>43945</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1076,16 +1078,16 @@
         <v>43946</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>43947</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1116,16 +1118,16 @@
         <v>43947</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>43948</v>
       </c>
       <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
         <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1156,16 +1158,16 @@
         <v>43949</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1176,16 +1178,16 @@
         <v>43950</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1196,16 +1198,16 @@
         <v>43951</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1216,16 +1218,16 @@
         <v>43952</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1236,16 +1238,16 @@
         <v>43953</v>
       </c>
       <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
         <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1256,16 +1258,16 @@
         <v>43954</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1276,16 +1278,16 @@
         <v>43954</v>
       </c>
       <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1296,16 +1298,16 @@
         <v>43955</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1316,16 +1318,16 @@
         <v>43956</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>43957</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
         <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1356,16 +1358,16 @@
         <v>43958</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>43959</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1396,16 +1398,16 @@
         <v>43960</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1416,16 +1418,16 @@
         <v>43961</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1436,16 +1438,16 @@
         <v>43961</v>
       </c>
       <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
         <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>20</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1456,16 +1458,16 @@
         <v>43962</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1476,16 +1478,16 @@
         <v>43963</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
         <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1496,16 +1498,16 @@
         <v>43964</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1516,16 +1518,16 @@
         <v>43965</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1536,16 +1538,16 @@
         <v>43966</v>
       </c>
       <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
         <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1556,16 +1558,16 @@
         <v>43967</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>43968</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F57">
         <v>0</v>
